--- a/Implementation/configs/s.xlsx
+++ b/Implementation/configs/s.xlsx
@@ -32,16 +32,16 @@
     <t>sid</t>
   </si>
   <si>
+    <t>No Scaling</t>
+  </si>
+  <si>
+    <t>01 Scaling</t>
+  </si>
+  <si>
+    <t>01 Scaling with Outlier</t>
+  </si>
+  <si>
     <t>donothing</t>
-  </si>
-  <si>
-    <t>No Scaling</t>
-  </si>
-  <si>
-    <t>01 Scaling</t>
-  </si>
-  <si>
-    <t>01 Scaling with Outlier</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation/configs/s.xlsx
+++ b/Implementation/configs/s.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>donothing</t>
+  </si>
+  <si>
+    <t>Z Scaling</t>
   </si>
 </sst>
 </file>
@@ -359,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,6 +410,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
